--- a/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS90103_アクセスレベル一括更新画面.xlsx
+++ b/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS90103_アクセスレベル一括更新画面.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Projects\03.JTEKT\00.プロジェクト別\09.2024年度DRASAPサーバ更新2024\30.設計ドキュメント\T_テスト／移行\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\04.T_テスト／移行\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40621AB-78D5-4BA4-A7CA-CBEEF60EF37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FB112D-AEB2-4FA8-AFAA-67F9F20D2385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="77" yWindow="4783" windowWidth="32537" windowHeight="12626" tabRatio="368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="368" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アクセスレベル一括更新画面" sheetId="4" r:id="rId1"/>
+    <sheet name="No.1~6" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="209">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -3613,12 +3614,20 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>OLD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NEW</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3690,6 +3699,15 @@
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3848,7 +3866,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -3922,6 +3940,12 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3964,15 +3988,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3994,6 +4013,1447 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>279644</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>209202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D40612E0-D19A-4B32-B3C2-FBEBFD701B83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19888200" y="714375"/>
+          <a:ext cx="18110444" cy="9734202"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>279644</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>209202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12792BA-8728-44BB-85C6-ABACD549DA7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19888200" y="10715625"/>
+          <a:ext cx="18110444" cy="9734202"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>279644</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>209202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EC909CD-2DE3-4B12-B9E2-FB4F68DD9FC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="10715625"/>
+          <a:ext cx="18110444" cy="9734202"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>279644</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>209202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A855932A-3EC9-4386-8F6B-85F032F8B2EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="714375"/>
+          <a:ext cx="18110444" cy="9734202"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>658091</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>101025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>103909</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>173183</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C42D5E10-9401-4C78-82D8-255E4036A4FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17803091" y="2958525"/>
+          <a:ext cx="817418" cy="310283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>643081</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>100444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>432956</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>207819</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Speech Bubble: Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58A3515F-5540-407F-8822-E24D15AE4D11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17788081" y="3434194"/>
+          <a:ext cx="475675" cy="345500"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 38874"/>
+            <a:gd name="adj2" fmla="val -99874"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>51956</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>14433</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A2488D-FEC4-410C-BA2D-5E067A68E62D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="737756" y="10730058"/>
+          <a:ext cx="10990117" cy="1842942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>573808</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>13854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>259773</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>207819</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Speech Bubble: Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41B57014-339C-43D8-BB79-4D822ACF8CC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2631208" y="14063229"/>
+          <a:ext cx="4486565" cy="2813340"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 37184"/>
+            <a:gd name="adj2" fmla="val -65634"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>タイトルが下記の通り表示されること</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Drawing Search and Print System [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>運用支援ログイン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ログインの説明文は、以下の通りであること</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>運用支援ツールログイン</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>運用支援ツール用のパスワードを入力してください。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.4</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>運用支援ツール用のパスワード入力欄が存在する。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ログイン用のボタンが有効になっている</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.6</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>キャンセル用のボタンが有効になっている</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>643081</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>31170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>311728</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>155862</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Speech Bubble: Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA5E934-101E-4797-ABA1-E4EB138665AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8872681" y="4317420"/>
+          <a:ext cx="2411847" cy="600942"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -41702"/>
+            <a:gd name="adj2" fmla="val 101409"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>No.1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>別ウィンドウでブラウザを起動する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>121227</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>222252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>259772</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62D077F1-CE0C-4DE5-A286-61B9F5C5CD12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37154427" y="3079752"/>
+          <a:ext cx="824345" cy="305953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>106217</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>221671</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>588819</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Speech Bubble: Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61F31659-056E-4525-810C-4C389B53A354}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37139417" y="3555421"/>
+          <a:ext cx="482602" cy="341170"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 38874"/>
+            <a:gd name="adj2" fmla="val -99874"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>51956</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>14433</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>69274</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5AB43B7-AC3D-4D5F-8B1E-1E1A514B96D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19940156" y="10730058"/>
+          <a:ext cx="10990118" cy="1842942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>123536</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>221672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>502229</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>173183</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Speech Bubble: Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB3E80D0-1E3F-46BF-8367-6A05934A48EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22069136" y="13556672"/>
+          <a:ext cx="4493493" cy="2809011"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 37184"/>
+            <a:gd name="adj2" fmla="val -65634"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>タイトルが下記の通り表示されること</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Drawing Search and Print System [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>運用支援ログイン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ログインの説明文は、以下の通りであること</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>運用支援ツールログイン</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>運用支援ツール用のパスワードを入力してください。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.4</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>運用支援ツール用のパスワード入力欄が存在する。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ログイン用のボタンが有効になっている</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.6</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>キャンセル用のボタンが有効になっている</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>643081</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>31170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>311728</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>155862</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Speech Bubble: Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E2B4BE-ED20-40B9-842D-11BC5CE7F91E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28075081" y="4317420"/>
+          <a:ext cx="2411847" cy="600942"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -41702"/>
+            <a:gd name="adj2" fmla="val 101409"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>No.1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>別ウィンドウでブラウザを起動する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4261,42 +5721,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EE8FD0-4ABB-4C07-B80B-0BBE3978AB23}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="31.2109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.0703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="44.7109375" style="1" customWidth="1"/>
-    <col min="8" max="12" width="46.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="84.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.2109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="45.78515625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="6.125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="31.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="44.75" style="1" customWidth="1"/>
+    <col min="8" max="12" width="46.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="84.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.25" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="2" customWidth="1"/>
+    <col min="17" max="17" width="45.75" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.6" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="18" t="s">
         <v>16</v>
       </c>
@@ -4307,11 +5767,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
@@ -4323,27 +5783,27 @@
       </c>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="21"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="23" t="s">
         <v>34</v>
       </c>
@@ -4353,14 +5813,14 @@
       <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="29"/>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
@@ -4380,8 +5840,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A7" s="10"/>
+    <row r="7" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="10">
+        <v>1</v>
+      </c>
       <c r="B7" s="12" t="s">
         <v>19</v>
       </c>
@@ -4411,8 +5873,10 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="16"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.65">
-      <c r="A8" s="10"/>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" s="10">
+        <v>2</v>
+      </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -4434,8 +5898,10 @@
       <c r="P8" s="14"/>
       <c r="Q8" s="16"/>
     </row>
-    <row r="9" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
-      <c r="A9" s="10"/>
+    <row r="9" spans="1:17" ht="63" x14ac:dyDescent="0.4">
+      <c r="A9" s="10">
+        <v>3</v>
+      </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -4457,8 +5923,10 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="16"/>
     </row>
-    <row r="10" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A10" s="10"/>
+    <row r="10" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="10">
+        <v>4</v>
+      </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -4480,8 +5948,10 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="16"/>
     </row>
-    <row r="11" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A11" s="10"/>
+    <row r="11" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="10">
+        <v>5</v>
+      </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -4503,8 +5973,10 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="16"/>
     </row>
-    <row r="12" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A12" s="10"/>
+    <row r="12" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="10">
+        <v>6</v>
+      </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -4526,8 +5998,10 @@
       <c r="P12" s="14"/>
       <c r="Q12" s="16"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.65">
-      <c r="A13" s="10"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" s="10">
+        <v>7</v>
+      </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -4549,8 +6023,10 @@
       <c r="P13" s="14"/>
       <c r="Q13" s="16"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.65">
-      <c r="A14" s="10"/>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" s="10">
+        <v>8</v>
+      </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -4572,8 +6048,10 @@
       <c r="P14" s="14"/>
       <c r="Q14" s="16"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.65">
-      <c r="A15" s="10"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" s="10">
+        <v>9</v>
+      </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -4597,8 +6075,10 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="16"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.65">
-      <c r="A16" s="10"/>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" s="10">
+        <v>10</v>
+      </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -4620,8 +6100,10 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="16"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.65">
-      <c r="A17" s="10"/>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A17" s="10">
+        <v>11</v>
+      </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -4645,8 +6127,10 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="16"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.65">
-      <c r="A18" s="10"/>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A18" s="10">
+        <v>12</v>
+      </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -4668,8 +6152,10 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="16"/>
     </row>
-    <row r="19" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
-      <c r="A19" s="10"/>
+    <row r="19" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A19" s="10">
+        <v>13</v>
+      </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -4691,8 +6177,10 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="16"/>
     </row>
-    <row r="20" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A20" s="10"/>
+    <row r="20" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A20" s="10">
+        <v>14</v>
+      </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -4714,8 +6202,10 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="16"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.65">
-      <c r="A21" s="10"/>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A21" s="10">
+        <v>15</v>
+      </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -4737,8 +6227,10 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="16"/>
     </row>
-    <row r="22" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
-      <c r="A22" s="10"/>
+    <row r="22" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A22" s="10">
+        <v>16</v>
+      </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12" t="s">
         <v>28</v>
@@ -4764,8 +6256,10 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="16"/>
     </row>
-    <row r="23" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
-      <c r="A23" s="10"/>
+    <row r="23" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A23" s="10">
+        <v>17</v>
+      </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="11"/>
@@ -4787,8 +6281,10 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="16"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.65">
-      <c r="A24" s="10"/>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A24" s="10">
+        <v>18</v>
+      </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12" t="s">
         <v>60</v>
@@ -4812,8 +6308,10 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="16"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.65">
-      <c r="A25" s="10"/>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A25" s="10">
+        <v>19</v>
+      </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="11"/>
@@ -4835,8 +6333,10 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="16"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.65">
-      <c r="A26" s="10"/>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A26" s="10">
+        <v>20</v>
+      </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12" t="s">
         <v>64</v>
@@ -4862,8 +6362,10 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="16"/>
     </row>
-    <row r="27" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A27" s="10"/>
+    <row r="27" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A27" s="10">
+        <v>21</v>
+      </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="11" t="s">
@@ -4887,8 +6389,10 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="16"/>
     </row>
-    <row r="28" spans="1:17" ht="154.30000000000001" x14ac:dyDescent="0.65">
-      <c r="A28" s="10"/>
+    <row r="28" spans="1:17" ht="157.5" x14ac:dyDescent="0.4">
+      <c r="A28" s="10">
+        <v>22</v>
+      </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="11" t="s">
@@ -4912,8 +6416,10 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="16"/>
     </row>
-    <row r="29" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A29" s="10"/>
+    <row r="29" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A29" s="10">
+        <v>23</v>
+      </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="11" t="s">
@@ -4937,8 +6443,10 @@
       <c r="P29" s="14"/>
       <c r="Q29" s="16"/>
     </row>
-    <row r="30" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A30" s="10"/>
+    <row r="30" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A30" s="10">
+        <v>24</v>
+      </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="11" t="s">
@@ -4960,7 +6468,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
-      <c r="M30" s="39" t="s">
+      <c r="M30" s="25" t="s">
         <v>99</v>
       </c>
       <c r="N30" s="14"/>
@@ -4968,8 +6476,10 @@
       <c r="P30" s="14"/>
       <c r="Q30" s="16"/>
     </row>
-    <row r="31" spans="1:17" ht="169.75" x14ac:dyDescent="0.65">
-      <c r="A31" s="10"/>
+    <row r="31" spans="1:17" ht="173.25" x14ac:dyDescent="0.4">
+      <c r="A31" s="10">
+        <v>25</v>
+      </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="11"/>
@@ -4983,7 +6493,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
-      <c r="M31" s="39" t="s">
+      <c r="M31" s="25" t="s">
         <v>140</v>
       </c>
       <c r="N31" s="14"/>
@@ -4991,8 +6501,10 @@
       <c r="P31" s="14"/>
       <c r="Q31" s="16"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.65">
-      <c r="A32" s="10"/>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A32" s="10">
+        <v>26</v>
+      </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="11"/>
@@ -5010,7 +6522,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
-      <c r="M32" s="39" t="s">
+      <c r="M32" s="25" t="s">
         <v>95</v>
       </c>
       <c r="N32" s="14"/>
@@ -5018,8 +6530,10 @@
       <c r="P32" s="14"/>
       <c r="Q32" s="16"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.65">
-      <c r="A33" s="10"/>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A33" s="10">
+        <v>27</v>
+      </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="11"/>
@@ -5033,7 +6547,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
-      <c r="M33" s="39" t="s">
+      <c r="M33" s="25" t="s">
         <v>101</v>
       </c>
       <c r="N33" s="14"/>
@@ -5041,8 +6555,10 @@
       <c r="P33" s="14"/>
       <c r="Q33" s="16"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.65">
-      <c r="A34" s="10"/>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A34" s="10">
+        <v>28</v>
+      </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="11"/>
@@ -5056,7 +6572,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
-      <c r="M34" s="39" t="s">
+      <c r="M34" s="25" t="s">
         <v>95</v>
       </c>
       <c r="N34" s="14"/>
@@ -5064,8 +6580,10 @@
       <c r="P34" s="14"/>
       <c r="Q34" s="16"/>
     </row>
-    <row r="35" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A35" s="10"/>
+    <row r="35" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A35" s="10">
+        <v>29</v>
+      </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="11"/>
@@ -5083,7 +6601,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
-      <c r="M35" s="39" t="s">
+      <c r="M35" s="25" t="s">
         <v>103</v>
       </c>
       <c r="N35" s="14"/>
@@ -5091,8 +6609,10 @@
       <c r="P35" s="14"/>
       <c r="Q35" s="16"/>
     </row>
-    <row r="36" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A36" s="10"/>
+    <row r="36" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A36" s="10">
+        <v>30</v>
+      </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="11"/>
@@ -5108,7 +6628,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
-      <c r="M36" s="39" t="s">
+      <c r="M36" s="25" t="s">
         <v>104</v>
       </c>
       <c r="N36" s="14"/>
@@ -5116,8 +6636,10 @@
       <c r="P36" s="14"/>
       <c r="Q36" s="16"/>
     </row>
-    <row r="37" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A37" s="10"/>
+    <row r="37" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A37" s="10">
+        <v>31</v>
+      </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="11"/>
@@ -5133,7 +6655,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
-      <c r="M37" s="39" t="s">
+      <c r="M37" s="25" t="s">
         <v>107</v>
       </c>
       <c r="N37" s="14"/>
@@ -5141,8 +6663,10 @@
       <c r="P37" s="14"/>
       <c r="Q37" s="16"/>
     </row>
-    <row r="38" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A38" s="10"/>
+    <row r="38" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A38" s="10">
+        <v>32</v>
+      </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="11"/>
@@ -5158,7 +6682,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
-      <c r="M38" s="39" t="s">
+      <c r="M38" s="25" t="s">
         <v>108</v>
       </c>
       <c r="N38" s="14"/>
@@ -5166,8 +6690,10 @@
       <c r="P38" s="14"/>
       <c r="Q38" s="16"/>
     </row>
-    <row r="39" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A39" s="10"/>
+    <row r="39" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A39" s="10">
+        <v>33</v>
+      </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="11"/>
@@ -5183,7 +6709,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
-      <c r="M39" s="39" t="s">
+      <c r="M39" s="25" t="s">
         <v>109</v>
       </c>
       <c r="N39" s="14"/>
@@ -5191,8 +6717,10 @@
       <c r="P39" s="14"/>
       <c r="Q39" s="16"/>
     </row>
-    <row r="40" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A40" s="10"/>
+    <row r="40" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A40" s="10">
+        <v>34</v>
+      </c>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="11"/>
@@ -5208,7 +6736,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
-      <c r="M40" s="39" t="s">
+      <c r="M40" s="25" t="s">
         <v>110</v>
       </c>
       <c r="N40" s="14"/>
@@ -5216,8 +6744,10 @@
       <c r="P40" s="14"/>
       <c r="Q40" s="16"/>
     </row>
-    <row r="41" spans="1:17" ht="77.150000000000006" x14ac:dyDescent="0.65">
-      <c r="A41" s="10"/>
+    <row r="41" spans="1:17" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="A41" s="10">
+        <v>35</v>
+      </c>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="11"/>
@@ -5233,7 +6763,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
-      <c r="M41" s="39" t="s">
+      <c r="M41" s="25" t="s">
         <v>111</v>
       </c>
       <c r="N41" s="14"/>
@@ -5241,8 +6771,10 @@
       <c r="P41" s="14"/>
       <c r="Q41" s="16"/>
     </row>
-    <row r="42" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A42" s="10"/>
+    <row r="42" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A42" s="10">
+        <v>36</v>
+      </c>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="11"/>
@@ -5258,7 +6790,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
-      <c r="M42" s="39" t="s">
+      <c r="M42" s="25" t="s">
         <v>112</v>
       </c>
       <c r="N42" s="14"/>
@@ -5266,8 +6798,10 @@
       <c r="P42" s="14"/>
       <c r="Q42" s="16"/>
     </row>
-    <row r="43" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A43" s="10"/>
+    <row r="43" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A43" s="10">
+        <v>37</v>
+      </c>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="11"/>
@@ -5283,7 +6817,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
-      <c r="M43" s="39" t="s">
+      <c r="M43" s="25" t="s">
         <v>113</v>
       </c>
       <c r="N43" s="14"/>
@@ -5291,8 +6825,10 @@
       <c r="P43" s="14"/>
       <c r="Q43" s="16"/>
     </row>
-    <row r="44" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A44" s="10"/>
+    <row r="44" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A44" s="10">
+        <v>38</v>
+      </c>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="11"/>
@@ -5310,7 +6846,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
-      <c r="M44" s="39" t="s">
+      <c r="M44" s="25" t="s">
         <v>118</v>
       </c>
       <c r="N44" s="14"/>
@@ -5318,8 +6854,10 @@
       <c r="P44" s="14"/>
       <c r="Q44" s="16"/>
     </row>
-    <row r="45" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A45" s="10"/>
+    <row r="45" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A45" s="10">
+        <v>39</v>
+      </c>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="11"/>
@@ -5335,7 +6873,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
-      <c r="M45" s="39" t="s">
+      <c r="M45" s="25" t="s">
         <v>120</v>
       </c>
       <c r="N45" s="14"/>
@@ -5343,8 +6881,10 @@
       <c r="P45" s="14"/>
       <c r="Q45" s="16"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.65">
-      <c r="A46" s="10"/>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A46" s="10">
+        <v>40</v>
+      </c>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="11"/>
@@ -5360,7 +6900,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
-      <c r="M46" s="39" t="s">
+      <c r="M46" s="25" t="s">
         <v>122</v>
       </c>
       <c r="N46" s="14"/>
@@ -5368,8 +6908,10 @@
       <c r="P46" s="14"/>
       <c r="Q46" s="16"/>
     </row>
-    <row r="47" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A47" s="10"/>
+    <row r="47" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A47" s="10">
+        <v>41</v>
+      </c>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="11"/>
@@ -5387,7 +6929,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
-      <c r="M47" s="39" t="s">
+      <c r="M47" s="25" t="s">
         <v>117</v>
       </c>
       <c r="N47" s="14"/>
@@ -5395,8 +6937,10 @@
       <c r="P47" s="14"/>
       <c r="Q47" s="16"/>
     </row>
-    <row r="48" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A48" s="10"/>
+    <row r="48" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A48" s="10">
+        <v>42</v>
+      </c>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="11"/>
@@ -5412,7 +6956,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
-      <c r="M48" s="39" t="s">
+      <c r="M48" s="25" t="s">
         <v>136</v>
       </c>
       <c r="N48" s="14"/>
@@ -5420,8 +6964,10 @@
       <c r="P48" s="14"/>
       <c r="Q48" s="16"/>
     </row>
-    <row r="49" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A49" s="10"/>
+    <row r="49" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A49" s="10">
+        <v>43</v>
+      </c>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="11"/>
@@ -5437,7 +6983,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
-      <c r="M49" s="39" t="s">
+      <c r="M49" s="25" t="s">
         <v>139</v>
       </c>
       <c r="N49" s="14"/>
@@ -5445,8 +6991,10 @@
       <c r="P49" s="14"/>
       <c r="Q49" s="16"/>
     </row>
-    <row r="50" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
-      <c r="A50" s="10"/>
+    <row r="50" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A50" s="10">
+        <v>44</v>
+      </c>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="11"/>
@@ -5464,7 +7012,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
-      <c r="M50" s="39" t="s">
+      <c r="M50" s="25" t="s">
         <v>146</v>
       </c>
       <c r="N50" s="14"/>
@@ -5472,8 +7020,10 @@
       <c r="P50" s="14"/>
       <c r="Q50" s="16"/>
     </row>
-    <row r="51" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
-      <c r="A51" s="10"/>
+    <row r="51" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A51" s="10">
+        <v>45</v>
+      </c>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="11"/>
@@ -5487,7 +7037,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
-      <c r="M51" s="39" t="s">
+      <c r="M51" s="25" t="s">
         <v>144</v>
       </c>
       <c r="N51" s="14"/>
@@ -5495,8 +7045,10 @@
       <c r="P51" s="14"/>
       <c r="Q51" s="16"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.65">
-      <c r="A52" s="10"/>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A52" s="10">
+        <v>46</v>
+      </c>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="11"/>
@@ -5513,8 +7065,10 @@
       <c r="P52" s="14"/>
       <c r="Q52" s="16"/>
     </row>
-    <row r="53" spans="1:17" ht="385.75" x14ac:dyDescent="0.65">
-      <c r="A53" s="10"/>
+    <row r="53" spans="1:17" ht="393.75" x14ac:dyDescent="0.4">
+      <c r="A53" s="10">
+        <v>47</v>
+      </c>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="11"/>
@@ -5534,7 +7088,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="11"/>
       <c r="L53" s="11"/>
-      <c r="M53" s="39" t="s">
+      <c r="M53" s="25" t="s">
         <v>147</v>
       </c>
       <c r="N53" s="14"/>
@@ -5542,8 +7096,10 @@
       <c r="P53" s="14"/>
       <c r="Q53" s="16"/>
     </row>
-    <row r="54" spans="1:17" ht="185.15" x14ac:dyDescent="0.65">
-      <c r="A54" s="10"/>
+    <row r="54" spans="1:17" ht="189" x14ac:dyDescent="0.4">
+      <c r="A54" s="10">
+        <v>48</v>
+      </c>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="11"/>
@@ -5555,7 +7111,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="11"/>
       <c r="L54" s="11"/>
-      <c r="M54" s="39" t="s">
+      <c r="M54" s="25" t="s">
         <v>155</v>
       </c>
       <c r="N54" s="14"/>
@@ -5563,8 +7119,10 @@
       <c r="P54" s="14"/>
       <c r="Q54" s="16"/>
     </row>
-    <row r="55" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A55" s="10"/>
+    <row r="55" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A55" s="10">
+        <v>49</v>
+      </c>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="11"/>
@@ -5580,7 +7138,7 @@
       </c>
       <c r="K55" s="11"/>
       <c r="L55" s="11"/>
-      <c r="M55" s="39" t="s">
+      <c r="M55" s="25" t="s">
         <v>153</v>
       </c>
       <c r="N55" s="14"/>
@@ -5588,8 +7146,10 @@
       <c r="P55" s="14"/>
       <c r="Q55" s="16"/>
     </row>
-    <row r="56" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A56" s="10"/>
+    <row r="56" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A56" s="10">
+        <v>50</v>
+      </c>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="11"/>
@@ -5601,7 +7161,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="11"/>
       <c r="L56" s="11"/>
-      <c r="M56" s="39" t="s">
+      <c r="M56" s="25" t="s">
         <v>154</v>
       </c>
       <c r="N56" s="14"/>
@@ -5609,8 +7169,10 @@
       <c r="P56" s="14"/>
       <c r="Q56" s="16"/>
     </row>
-    <row r="57" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A57" s="10"/>
+    <row r="57" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A57" s="10">
+        <v>51</v>
+      </c>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="11"/>
@@ -5624,7 +7186,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="11"/>
       <c r="L57" s="11"/>
-      <c r="M57" s="39" t="s">
+      <c r="M57" s="25" t="s">
         <v>148</v>
       </c>
       <c r="N57" s="14"/>
@@ -5632,8 +7194,10 @@
       <c r="P57" s="14"/>
       <c r="Q57" s="16"/>
     </row>
-    <row r="58" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A58" s="10"/>
+    <row r="58" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A58" s="10">
+        <v>52</v>
+      </c>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="11"/>
@@ -5647,7 +7211,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="11"/>
       <c r="L58" s="11"/>
-      <c r="M58" s="39" t="s">
+      <c r="M58" s="25" t="s">
         <v>149</v>
       </c>
       <c r="N58" s="14"/>
@@ -5655,8 +7219,10 @@
       <c r="P58" s="14"/>
       <c r="Q58" s="16"/>
     </row>
-    <row r="59" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A59" s="10"/>
+    <row r="59" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A59" s="10">
+        <v>53</v>
+      </c>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="11"/>
@@ -5670,7 +7236,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="11"/>
       <c r="L59" s="11"/>
-      <c r="M59" s="39" t="s">
+      <c r="M59" s="25" t="s">
         <v>150</v>
       </c>
       <c r="N59" s="14"/>
@@ -5678,8 +7244,10 @@
       <c r="P59" s="14"/>
       <c r="Q59" s="16"/>
     </row>
-    <row r="60" spans="1:17" ht="154.30000000000001" x14ac:dyDescent="0.65">
-      <c r="A60" s="10"/>
+    <row r="60" spans="1:17" ht="157.5" x14ac:dyDescent="0.4">
+      <c r="A60" s="10">
+        <v>54</v>
+      </c>
       <c r="B60" s="12"/>
       <c r="C60" s="12" t="s">
         <v>157</v>
@@ -5699,7 +7267,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="11"/>
       <c r="L60" s="11"/>
-      <c r="M60" s="39" t="s">
+      <c r="M60" s="25" t="s">
         <v>165</v>
       </c>
       <c r="N60" s="14"/>
@@ -5707,8 +7275,10 @@
       <c r="P60" s="14"/>
       <c r="Q60" s="16"/>
     </row>
-    <row r="61" spans="1:17" ht="123.45" x14ac:dyDescent="0.65">
-      <c r="A61" s="10"/>
+    <row r="61" spans="1:17" ht="126" x14ac:dyDescent="0.4">
+      <c r="A61" s="10">
+        <v>55</v>
+      </c>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="11"/>
@@ -5724,7 +7294,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="11"/>
       <c r="L61" s="11"/>
-      <c r="M61" s="39" t="s">
+      <c r="M61" s="25" t="s">
         <v>158</v>
       </c>
       <c r="N61" s="14"/>
@@ -5732,8 +7302,10 @@
       <c r="P61" s="14"/>
       <c r="Q61" s="16"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.65">
-      <c r="A62" s="10"/>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A62" s="10">
+        <v>56</v>
+      </c>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="11"/>
@@ -5751,7 +7323,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
       <c r="L62" s="11"/>
-      <c r="M62" s="39" t="s">
+      <c r="M62" s="25" t="s">
         <v>166</v>
       </c>
       <c r="N62" s="14"/>
@@ -5759,8 +7331,10 @@
       <c r="P62" s="14"/>
       <c r="Q62" s="16"/>
     </row>
-    <row r="63" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A63" s="10"/>
+    <row r="63" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A63" s="10">
+        <v>57</v>
+      </c>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="11"/>
@@ -5776,7 +7350,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
-      <c r="M63" s="39" t="s">
+      <c r="M63" s="25" t="s">
         <v>167</v>
       </c>
       <c r="N63" s="14"/>
@@ -5784,8 +7358,10 @@
       <c r="P63" s="14"/>
       <c r="Q63" s="16"/>
     </row>
-    <row r="64" spans="1:17" ht="108" x14ac:dyDescent="0.65">
-      <c r="A64" s="10"/>
+    <row r="64" spans="1:17" ht="110.25" x14ac:dyDescent="0.4">
+      <c r="A64" s="10">
+        <v>58</v>
+      </c>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
       <c r="D64" s="11"/>
@@ -5799,7 +7375,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="11"/>
       <c r="L64" s="11"/>
-      <c r="M64" s="39" t="s">
+      <c r="M64" s="25" t="s">
         <v>172</v>
       </c>
       <c r="N64" s="14"/>
@@ -5807,8 +7383,10 @@
       <c r="P64" s="14"/>
       <c r="Q64" s="16"/>
     </row>
-    <row r="65" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
-      <c r="A65" s="10"/>
+    <row r="65" spans="1:17" ht="63" x14ac:dyDescent="0.4">
+      <c r="A65" s="10">
+        <v>59</v>
+      </c>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="D65" s="11"/>
@@ -5822,7 +7400,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="11"/>
       <c r="L65" s="11"/>
-      <c r="M65" s="39" t="s">
+      <c r="M65" s="25" t="s">
         <v>173</v>
       </c>
       <c r="N65" s="14"/>
@@ -5830,8 +7408,10 @@
       <c r="P65" s="14"/>
       <c r="Q65" s="16"/>
     </row>
-    <row r="66" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
-      <c r="A66" s="10"/>
+    <row r="66" spans="1:17" ht="63" x14ac:dyDescent="0.4">
+      <c r="A66" s="10">
+        <v>60</v>
+      </c>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="11"/>
@@ -5847,7 +7427,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
-      <c r="M66" s="39" t="s">
+      <c r="M66" s="25" t="s">
         <v>181</v>
       </c>
       <c r="N66" s="14"/>
@@ -5855,8 +7435,10 @@
       <c r="P66" s="14"/>
       <c r="Q66" s="16"/>
     </row>
-    <row r="67" spans="1:17" ht="77.150000000000006" x14ac:dyDescent="0.65">
-      <c r="A67" s="10"/>
+    <row r="67" spans="1:17" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="A67" s="10">
+        <v>61</v>
+      </c>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="11"/>
@@ -5870,7 +7452,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
       <c r="L67" s="11"/>
-      <c r="M67" s="39" t="s">
+      <c r="M67" s="25" t="s">
         <v>176</v>
       </c>
       <c r="N67" s="14"/>
@@ -5878,8 +7460,10 @@
       <c r="P67" s="14"/>
       <c r="Q67" s="16"/>
     </row>
-    <row r="68" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
-      <c r="A68" s="10"/>
+    <row r="68" spans="1:17" ht="63" x14ac:dyDescent="0.4">
+      <c r="A68" s="10">
+        <v>62</v>
+      </c>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="11"/>
@@ -5893,7 +7477,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
       <c r="L68" s="11"/>
-      <c r="M68" s="39" t="s">
+      <c r="M68" s="25" t="s">
         <v>177</v>
       </c>
       <c r="N68" s="14"/>
@@ -5901,8 +7485,10 @@
       <c r="P68" s="14"/>
       <c r="Q68" s="16"/>
     </row>
-    <row r="69" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A69" s="10"/>
+    <row r="69" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A69" s="10">
+        <v>63</v>
+      </c>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="11"/>
@@ -5918,7 +7504,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="11"/>
       <c r="L69" s="11"/>
-      <c r="M69" s="39" t="s">
+      <c r="M69" s="25" t="s">
         <v>183</v>
       </c>
       <c r="N69" s="14"/>
@@ -5926,8 +7512,10 @@
       <c r="P69" s="14"/>
       <c r="Q69" s="16"/>
     </row>
-    <row r="70" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
-      <c r="A70" s="10"/>
+    <row r="70" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
+      <c r="A70" s="10">
+        <v>64</v>
+      </c>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
@@ -5939,7 +7527,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="11"/>
       <c r="L70" s="11"/>
-      <c r="M70" s="39" t="s">
+      <c r="M70" s="25" t="s">
         <v>184</v>
       </c>
       <c r="N70" s="14"/>
@@ -5947,8 +7535,10 @@
       <c r="P70" s="14"/>
       <c r="Q70" s="16"/>
     </row>
-    <row r="71" spans="1:17" ht="138.9" x14ac:dyDescent="0.65">
-      <c r="A71" s="10"/>
+    <row r="71" spans="1:17" ht="141.75" x14ac:dyDescent="0.4">
+      <c r="A71" s="10">
+        <v>65</v>
+      </c>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
@@ -5960,7 +7550,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="11"/>
       <c r="L71" s="11"/>
-      <c r="M71" s="39" t="s">
+      <c r="M71" s="25" t="s">
         <v>185</v>
       </c>
       <c r="N71" s="14"/>
@@ -5968,8 +7558,10 @@
       <c r="P71" s="14"/>
       <c r="Q71" s="16"/>
     </row>
-    <row r="72" spans="1:17" ht="138.9" x14ac:dyDescent="0.65">
-      <c r="A72" s="10"/>
+    <row r="72" spans="1:17" ht="141.75" x14ac:dyDescent="0.4">
+      <c r="A72" s="10">
+        <v>66</v>
+      </c>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
@@ -5983,7 +7575,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="11"/>
       <c r="L72" s="11"/>
-      <c r="M72" s="40" t="s">
+      <c r="M72" s="26" t="s">
         <v>203</v>
       </c>
       <c r="N72" s="14"/>
@@ -5991,8 +7583,10 @@
       <c r="P72" s="14"/>
       <c r="Q72" s="16"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.65">
-      <c r="A73" s="10"/>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A73" s="10">
+        <v>67</v>
+      </c>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
@@ -6008,7 +7602,7 @@
       </c>
       <c r="K73" s="11"/>
       <c r="L73" s="11"/>
-      <c r="M73" s="40" t="s">
+      <c r="M73" s="26" t="s">
         <v>205</v>
       </c>
       <c r="N73" s="14"/>
@@ -6016,8 +7610,10 @@
       <c r="P73" s="14"/>
       <c r="Q73" s="16"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.65">
-      <c r="A74" s="10"/>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A74" s="10">
+        <v>68</v>
+      </c>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="11"/>
@@ -6031,7 +7627,7 @@
       </c>
       <c r="K74" s="11"/>
       <c r="L74" s="11"/>
-      <c r="M74" s="39" t="s">
+      <c r="M74" s="25" t="s">
         <v>188</v>
       </c>
       <c r="N74" s="14"/>
@@ -6039,8 +7635,10 @@
       <c r="P74" s="14"/>
       <c r="Q74" s="16"/>
     </row>
-    <row r="75" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A75" s="10"/>
+    <row r="75" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A75" s="10">
+        <v>69</v>
+      </c>
       <c r="B75" s="12"/>
       <c r="C75" s="12" t="s">
         <v>186</v>
@@ -6056,7 +7654,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="11"/>
       <c r="L75" s="11"/>
-      <c r="M75" s="39" t="s">
+      <c r="M75" s="25" t="s">
         <v>187</v>
       </c>
       <c r="N75" s="14"/>
@@ -6064,8 +7662,10 @@
       <c r="P75" s="14"/>
       <c r="Q75" s="16"/>
     </row>
-    <row r="76" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A76" s="10"/>
+    <row r="76" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A76" s="10">
+        <v>70</v>
+      </c>
       <c r="B76" s="12" t="s">
         <v>189</v>
       </c>
@@ -6095,8 +7695,10 @@
       <c r="P76" s="14"/>
       <c r="Q76" s="16"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.65">
-      <c r="A77" s="10"/>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A77" s="10">
+        <v>71</v>
+      </c>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
@@ -6118,8 +7720,10 @@
       <c r="P77" s="14"/>
       <c r="Q77" s="16"/>
     </row>
-    <row r="78" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
-      <c r="A78" s="10"/>
+    <row r="78" spans="1:17" ht="63" x14ac:dyDescent="0.4">
+      <c r="A78" s="10">
+        <v>72</v>
+      </c>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
@@ -6141,8 +7745,10 @@
       <c r="P78" s="14"/>
       <c r="Q78" s="16"/>
     </row>
-    <row r="79" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A79" s="10"/>
+    <row r="79" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A79" s="10">
+        <v>73</v>
+      </c>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
@@ -6164,8 +7770,10 @@
       <c r="P79" s="14"/>
       <c r="Q79" s="16"/>
     </row>
-    <row r="80" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
-      <c r="A80" s="10"/>
+    <row r="80" spans="1:17" ht="63" x14ac:dyDescent="0.4">
+      <c r="A80" s="10">
+        <v>74</v>
+      </c>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
@@ -6187,8 +7795,10 @@
       <c r="P80" s="14"/>
       <c r="Q80" s="16"/>
     </row>
-    <row r="81" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
-      <c r="A81" s="10"/>
+    <row r="81" spans="1:17" ht="63" x14ac:dyDescent="0.4">
+      <c r="A81" s="10">
+        <v>75</v>
+      </c>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
@@ -6200,7 +7810,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="11"/>
       <c r="L81" s="11"/>
-      <c r="M81" s="39" t="s">
+      <c r="M81" s="25" t="s">
         <v>194</v>
       </c>
       <c r="N81" s="14"/>
@@ -6208,8 +7818,10 @@
       <c r="P81" s="14"/>
       <c r="Q81" s="16"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.65">
-      <c r="A82" s="10"/>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A82" s="10">
+        <v>76</v>
+      </c>
       <c r="B82" s="12"/>
       <c r="C82" s="12" t="s">
         <v>195</v>
@@ -6225,7 +7837,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="11"/>
       <c r="L82" s="11"/>
-      <c r="M82" s="39" t="s">
+      <c r="M82" s="25" t="s">
         <v>197</v>
       </c>
       <c r="N82" s="14"/>
@@ -6233,8 +7845,10 @@
       <c r="P82" s="14"/>
       <c r="Q82" s="16"/>
     </row>
-    <row r="83" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A83" s="10"/>
+    <row r="83" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A83" s="10">
+        <v>77</v>
+      </c>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
       <c r="D83" s="12" t="s">
@@ -6248,7 +7862,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="11"/>
       <c r="L83" s="11"/>
-      <c r="M83" s="39" t="s">
+      <c r="M83" s="25" t="s">
         <v>199</v>
       </c>
       <c r="N83" s="14"/>
@@ -6256,8 +7870,10 @@
       <c r="P83" s="14"/>
       <c r="Q83" s="16"/>
     </row>
-    <row r="84" spans="1:17" ht="185.15" x14ac:dyDescent="0.65">
-      <c r="A84" s="10"/>
+    <row r="84" spans="1:17" ht="189" x14ac:dyDescent="0.4">
+      <c r="A84" s="10">
+        <v>78</v>
+      </c>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
@@ -6271,7 +7887,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="11"/>
       <c r="L84" s="11"/>
-      <c r="M84" s="39" t="s">
+      <c r="M84" s="25" t="s">
         <v>201</v>
       </c>
       <c r="N84" s="14"/>
@@ -6279,8 +7895,10 @@
       <c r="P84" s="14"/>
       <c r="Q84" s="16"/>
     </row>
-    <row r="85" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A85" s="10"/>
+    <row r="85" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A85" s="10">
+        <v>79</v>
+      </c>
       <c r="B85" s="12"/>
       <c r="C85" s="12" t="s">
         <v>186</v>
@@ -6296,7 +7914,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="11"/>
       <c r="L85" s="11"/>
-      <c r="M85" s="39" t="s">
+      <c r="M85" s="25" t="s">
         <v>187</v>
       </c>
       <c r="N85" s="14"/>
@@ -6319,7 +7937,50 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D965D72-AB5A-4860-B76E-3977159ABA98}">
+  <dimension ref="B2:AD2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B2" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD2" s="41" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100B932A2821493BB4AB71A0C79347FD678" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="528594b33024f52b27c0b5dcdc9dfa0b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xmlns:ns3="e8618445-b921-4c48-afdf-14e883213c59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25e4712d85e376121aa3366c94b400a9" ns2:_="" ns3:_="">
     <xsd:import namespace="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
@@ -6542,34 +8203,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{801980DC-6A0D-4CA7-A0F9-92056BB7AA2F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{013A698A-7FA0-4184-9C1C-D93F5D0F5FD7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3612292E-CA52-45DF-B315-358203B60D2F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3612292E-CA52-45DF-B315-358203B60D2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{013A698A-7FA0-4184-9C1C-D93F5D0F5FD7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{801980DC-6A0D-4CA7-A0F9-92056BB7AA2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>